--- a/data/trans_camb/P25_11-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_11-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,93</t>
+          <t>-4,66; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,94</t>
+          <t>-5,21; 1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 3,52</t>
+          <t>-1,87; 4,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 3,84</t>
+          <t>-1,68; 4,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 4,45</t>
+          <t>-0,62; 5,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 8,71</t>
+          <t>-2,64; 3,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,57</t>
+          <t>-2,3; 4,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 1,99</t>
+          <t>0,23; 8,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,25</t>
+          <t>-0,68; 7,41</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,79; 5,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 1,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 1,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,04; 5,12</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 5,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 4,48</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,17%</t>
+          <t>-25,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,86%</t>
+          <t>-26,1%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,7%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-7,47%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,67%</t>
+          <t>22,1%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-2,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,54; 22,43</t>
+          <t>-58,77; 38,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 22,84</t>
+          <t>-61,94; 26,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,85; 82,64</t>
+          <t>-28,82; 103,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 40,62</t>
+          <t>-17,4; 82,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,1; 46,16</t>
+          <t>-8,25; 90,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 90,6</t>
+          <t>-20,71; 37,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 21,42</t>
+          <t>-18,37; 46,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 27,14</t>
+          <t>0,11; 78,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 70,6</t>
+          <t>-3,61; 58,84</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 41,24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-28,87; 23,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,21; 24,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 67,93</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-3,44; 50,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-2,28; 41,98</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-0,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,69</t>
+          <t>-3,25; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 4,71</t>
+          <t>-3,52; 5,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 1,88</t>
+          <t>-2,01; 4,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 4,2</t>
+          <t>-2,87; 5,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,47</t>
+          <t>0,18; 7,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 11,21</t>
+          <t>-3,79; 4,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,76</t>
+          <t>-1,94; 6,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 3,9</t>
+          <t>1,31; 10,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,44</t>
+          <t>-5,56; 5,87</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 7,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 2,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,31</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 6,48</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 4,24</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 6,43</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,59%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>61,79%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,69%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,98%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 162,61</t>
+          <t>-47,43; 111,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 129,97</t>
+          <t>-54,52; 129,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,71; 57,1</t>
+          <t>-28,88; 127,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 62,09</t>
+          <t>-33,65; 95,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,68; 78,18</t>
+          <t>-1,49; 350,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 138,47</t>
+          <t>-33,6; 55,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 63,99</t>
+          <t>-18,15; 93,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 67,76</t>
+          <t>8,36; 134,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 88,92</t>
+          <t>-33,92; 44,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,19; 67,96</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-28,95; 46,42</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-19,98; 70,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>4,96; 107,42</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-25,0; 44,28</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 95,59</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,51</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>5,78</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,55</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 8,09</t>
+          <t>-3,93; 8,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 7,1</t>
+          <t>-5,1; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,95; 8,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,46; 10,63</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 6,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-1,49; 12,54</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 8,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 11,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 7,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 5,21</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 8,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,28; 5,76</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 7,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>30,79%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>20,73%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>64,52%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,99%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>28,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>54,5%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21,55%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>32,3%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,32; 302,79</t>
+          <t>-52,24; 277,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-50,54; 267,03</t>
+          <t>-65,61; 202,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-61,67; 352,64</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-45,32; 142,51</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 82,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-15,68; 204,04</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,56; 130,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-37,42; 181,69</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-31,9; 126,63</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-44,35; 93,17</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 187,58</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 113,43</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-27,8; 162,33</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,06</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 2,32</t>
+          <t>-2,51; 1,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,54</t>
+          <t>-2,82; 1,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,6</t>
+          <t>-0,98; 3,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 2,98</t>
+          <t>-0,92; 4,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 3,57</t>
+          <t>0,14; 5,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 8,25</t>
+          <t>-1,32; 3,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 1,83</t>
+          <t>-1,04; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,85</t>
+          <t>1,59; 7,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,66</t>
+          <t>0,0; 6,16</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 5,41</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,17; 2,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 2,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 4,84</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 4,24</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 4,33</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>-7,19%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-9,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>22,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>49,78%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>20,02%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,4%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 52,3</t>
+          <t>-37,08; 42,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,32; 35,25</t>
+          <t>-41,66; 40,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 57,4</t>
+          <t>-14,07; 74,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 32,58</t>
+          <t>-11,38; 69,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,76; 38,12</t>
+          <t>2,05; 99,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,6; 86,75</t>
+          <t>-11,97; 35,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 25,62</t>
+          <t>-9,44; 39,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 26,35</t>
+          <t>13,15; 77,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,68; 62,81</t>
+          <t>-0,13; 45,03</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 37,93</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-13,47; 26,48</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; 30,8</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 66,77</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 42,76</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 43,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
